--- a/resources/Rangos.xlsx
+++ b/resources/Rangos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E413"/>
+  <dimension ref="A1:F413"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,6 +438,7 @@
     <col width="10" customWidth="1" min="3" max="3"/>
     <col width="8" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="11" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -466,6 +467,11 @@
           <t>MAXIMO</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>UBICACION</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -489,6 +495,11 @@
       <c r="E2" t="n">
         <v>500</v>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>j11</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -528,6 +539,12 @@
         <is>
           <t>SST</t>
         </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
